--- a/data/trans_camb/P57_AF_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Estudios-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeAdic</t>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P57_AF_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P57_AF_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,41</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,67</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,86; 3,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,1; 12,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,32; 1,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 5,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,07; 17,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,27; 3,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 3,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,44; 14,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,72; 1,15</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,48%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,98; 5,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,98; 19,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,09; 2,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 9,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,46; 27,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; 4,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 6,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,23; 21,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,99; 1,74</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,48</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 5,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,05; 20,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,28; 1,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,76; 11,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,65; 20,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,08; 8,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,77; 7,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,45; 19,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 3,16</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,95%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 9,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,19; 35,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,46; 2,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,76; 19,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,03; 36,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,06; 14,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,6; 12,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,82; 34,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,07; 5,47</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,5</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,72</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; 8,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,44; 15,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,5; 1,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 11,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,61; 19,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,18; 1,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 8,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,21; 15,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,97; -0,65</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,67%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,7; 15,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,72; 30,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,2; 2,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 24,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,2; 40,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,26; 3,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 15,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,66; 30,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,78; -1,21</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,85</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 3,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,04; 15,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,74; -1,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,32; 7,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,63; 17,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,95; 2,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,59; 5,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,45; 15,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; -0,75</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,21%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,19%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 5,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,79; 26,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,56; -2,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,34; 13,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,21; 28,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,03; 3,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,58; 8,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,11; 26,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,46; -1,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_AF_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-2,63</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 1,59</t>
+          <t>-9,41; 0,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 3,1</t>
+          <t>-5,17; 2,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,15</t>
+          <t>-5,77; 0,17</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,02%</t>
+          <t>-6,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,85%</t>
+          <t>-2,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>-3,91%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 2,48</t>
+          <t>-13,63; 0,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 4,7</t>
+          <t>-7,47; 3,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 1,74</t>
+          <t>-8,4; 0,25</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-8,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-4,28</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 1,68</t>
+          <t>-25,37; -1,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 8,06</t>
+          <t>-6,72; 11,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 3,16</t>
+          <t>-13,27; 2,01</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,75%</t>
+          <t>-14,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>-7,32%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 2,85</t>
+          <t>-43,35; -2,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 14,36</t>
+          <t>-11,25; 20,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 5,47</t>
+          <t>-22,75; 3,46</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>-5,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,72</t>
+          <t>-5,18</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 1,1</t>
+          <t>-12,07; 0,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 1,86</t>
+          <t>-10,73; 1,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,97; -0,65</t>
+          <t>-9,46; -1,1</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,75%</t>
+          <t>-9,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,71%</t>
+          <t>-8,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-8,67%</t>
+          <t>-9,53%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 2,14</t>
+          <t>-20,29; 1,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 3,89</t>
+          <t>-19,47; 2,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,78; -1,21</t>
+          <t>-16,62; -2,1</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-8,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-5,82</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,74; -1,58</t>
+          <t>-20,49; -4,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 2,18</t>
+          <t>-7,41; 4,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,27; -0,75</t>
+          <t>-11,72; -1,98</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,21%</t>
+          <t>-14,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-5,19%</t>
+          <t>-9,55%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,56; -2,64</t>
+          <t>-32,78; -6,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 3,61</t>
+          <t>-11,96; 7,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,46; -1,25</t>
+          <t>-19,19; -3,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_AF_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 3,43</t>
+          <t>-4,91; 3,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,1; 12,65</t>
+          <t>4,02; 12,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 0,45</t>
+          <t>-9,79; 0,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 5,92</t>
+          <t>-1,72; 5,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,07; 17,97</t>
+          <t>9,95; 17,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 2,14</t>
+          <t>-4,94; 2,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,92</t>
+          <t>-1,62; 3,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,44; 14,0</t>
+          <t>8,48; 14,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 0,17</t>
+          <t>-5,48; 0,38</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 5,31</t>
+          <t>-7,09; 5,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 19,32</t>
+          <t>5,8; 19,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 0,71</t>
+          <t>-14,2; 0,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 9,08</t>
+          <t>-2,56; 8,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,46; 27,24</t>
+          <t>14,54; 26,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 3,25</t>
+          <t>-7,14; 3,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 6,0</t>
+          <t>-2,38; 5,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 21,23</t>
+          <t>12,31; 21,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 0,25</t>
+          <t>-8,05; 0,58</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 5,55</t>
+          <t>-0,84; 5,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 20,2</t>
+          <t>13,68; 20,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,37; -1,35</t>
+          <t>-27,06; -1,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,33</t>
+          <t>4,84; 12,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,65; 20,92</t>
+          <t>14,42; 20,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 11,51</t>
+          <t>-6,36; 11,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,42</t>
+          <t>2,54; 7,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,45; 19,58</t>
+          <t>15,27; 19,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 2,01</t>
+          <t>-12,63; 1,85</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 9,75</t>
+          <t>-1,45; 9,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,19; 35,75</t>
+          <t>22,7; 36,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,35; -2,43</t>
+          <t>-45,39; -2,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 19,85</t>
+          <t>7,98; 21,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,03; 36,7</t>
+          <t>23,83; 37,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 20,34</t>
+          <t>-10,65; 20,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 12,99</t>
+          <t>4,21; 13,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,82; 34,49</t>
+          <t>25,53; 34,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 3,46</t>
+          <t>-21,53; 3,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 8,28</t>
+          <t>-4,68; 8,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,44; 15,82</t>
+          <t>3,9; 15,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 0,85</t>
+          <t>-11,33; 1,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 11,58</t>
+          <t>-1,11; 11,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 19,01</t>
+          <t>6,77; 19,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 1,32</t>
+          <t>-9,89; 1,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 8,35</t>
+          <t>-1,51; 7,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 15,77</t>
+          <t>7,48; 16,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,46; -1,1</t>
+          <t>-9,52; -0,71</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 15,67</t>
+          <t>-7,86; 16,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,72; 30,0</t>
+          <t>6,42; 29,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 1,89</t>
+          <t>-18,76; 2,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 24,12</t>
+          <t>-2,09; 24,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,2; 40,39</t>
+          <t>12,19; 39,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 2,69</t>
+          <t>-17,95; 2,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 15,95</t>
+          <t>-2,5; 15,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,66; 30,12</t>
+          <t>12,9; 31,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,62; -2,1</t>
+          <t>-16,41; -1,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,44</t>
+          <t>-1,47; 3,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,04; 15,55</t>
+          <t>11,18; 15,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,49; -4,18</t>
+          <t>-20,31; -3,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,83</t>
+          <t>2,9; 7,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,63; 17,0</t>
+          <t>12,37; 16,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 4,51</t>
+          <t>-7,17; 4,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,01</t>
+          <t>1,79; 5,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,45; 15,65</t>
+          <t>12,4; 15,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,72; -1,98</t>
+          <t>-11,87; -1,8</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,81</t>
+          <t>-2,19; 6,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,79; 26,18</t>
+          <t>18,03; 26,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,78; -6,91</t>
+          <t>-33,92; -6,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,34; 13,02</t>
+          <t>4,67; 13,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,21; 28,67</t>
+          <t>19,7; 28,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 7,33</t>
+          <t>-11,55; 7,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,28</t>
+          <t>2,87; 8,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>20,11; 26,12</t>
+          <t>20,08; 25,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,19; -3,25</t>
+          <t>-19,42; -2,97</t>
         </is>
       </c>
     </row>
